--- a/vantage_micro.xlsx
+++ b/vantage_micro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\vantage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\vantage_cashback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B530EE3-CBD6-4C79-B60B-FEC2159DA5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818D0A2-579B-4C6E-A22B-C1D04AFD1088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,19 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,32 +383,68 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>20861603</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>22317163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>14333249</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>40868298</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>40868298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1">
+        <v>22360788</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22562096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>21579513</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22562096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>22360541</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22562096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>22360527</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22562096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>22361193</v>
+      </c>
+      <c r="B9" s="1">
+        <v>22562096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vantage_micro.xlsx
+++ b/vantage_micro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\vantage_cashback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818D0A2-579B-4C6E-A22B-C1D04AFD1088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA4791-92C2-46DD-9AA9-7F65C29184D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,6 +446,54 @@
         <v>22562096</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>22361746</v>
+      </c>
+      <c r="B10" s="1">
+        <v>21058926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>22363493</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21058926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>22365532</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21058926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>22365537</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21058926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>22365550</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21058926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>22365737</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21058926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
